--- a/model data.xlsx
+++ b/model data.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACA1C3C-7DA4-4DEB-90B3-FF7E2DEA7769}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697FCAB2-6229-4F99-A03A-EBC3C062A710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30945" yWindow="5400" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Route Information" sheetId="1" r:id="rId1"/>
     <sheet name="Order Information" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Route Information'!$A$1:$Y$51</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="98">
   <si>
     <t>Source</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -362,30 +376,39 @@
   <si>
     <t>Transit Duty</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCM Airport</t>
+  </si>
+  <si>
+    <t>HCM Port</t>
+  </si>
+  <si>
+    <t>HCM Warehouse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -462,47 +485,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -849,15 +860,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y51"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="75">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -876,28 +892,28 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="8" t="s">
         <v>94</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -912,29 +928,29 @@
       <c r="R1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -947,10 +963,10 @@
       <c r="D2" s="1">
         <v>67</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="1">
@@ -1009,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1022,10 +1038,10 @@
       <c r="D3" s="1">
         <v>67</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="1">
@@ -1084,23 +1100,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>34</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="1">
@@ -1159,29 +1175,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>50</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="1">
         <v>280</v>
       </c>
       <c r="I5" s="1">
@@ -1190,7 +1206,7 @@
       <c r="J5" s="1">
         <v>150</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="1">
         <v>20</v>
       </c>
       <c r="L5" s="1">
@@ -1234,29 +1250,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>67</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>300</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="1">
         <v>180</v>
       </c>
       <c r="I6" s="1">
@@ -1265,7 +1281,7 @@
       <c r="J6" s="1">
         <v>130</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="1">
         <v>20</v>
       </c>
       <c r="L6" s="1">
@@ -1310,29 +1326,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>67</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="1">
         <v>150</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="1">
         <v>180</v>
       </c>
       <c r="I7" s="1">
@@ -1341,7 +1357,7 @@
       <c r="J7" s="1">
         <v>130</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="1">
         <v>20</v>
       </c>
       <c r="L7" s="1">
@@ -1385,38 +1401,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>34</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="1">
         <v>100</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="1">
         <v>150</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="1">
         <v>80</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="1">
         <v>100</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="1">
         <v>20</v>
       </c>
       <c r="L8" s="1">
@@ -1426,72 +1442,72 @@
       <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="1">
         <v>24</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="1">
         <v>48</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="1">
         <v>5</v>
       </c>
-      <c r="S8" s="8">
-        <v>1</v>
-      </c>
-      <c r="T8" s="8">
-        <v>0</v>
-      </c>
-      <c r="U8" s="8">
-        <v>1</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="8">
-        <v>1</v>
-      </c>
-      <c r="X8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="1">
         <v>100</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="1">
         <v>150</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="1">
         <v>80</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="1">
         <v>100</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="1">
         <v>20</v>
       </c>
       <c r="L9" s="1">
@@ -1501,41 +1517,41 @@
       <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="1">
         <v>24</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="1">
         <v>48</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="1">
         <v>5</v>
       </c>
-      <c r="S9" s="8">
-        <v>1</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0</v>
-      </c>
-      <c r="U9" s="8">
-        <v>1</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0</v>
-      </c>
-      <c r="W9" s="8">
-        <v>1</v>
-      </c>
-      <c r="X9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1545,13 +1561,13 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>7</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="1">
@@ -1611,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1621,13 +1637,13 @@
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <v>7</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1">
@@ -1687,27 +1703,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <v>7</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:G15" si="0">G4*3</f>
+        <f>G4*3</f>
         <v>150</v>
       </c>
       <c r="H12" s="1">
@@ -1764,28 +1780,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="1">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="0"/>
-        <v>150</v>
+      <c r="G13" s="1" t="e">
+        <f>#REF!*3</f>
+        <v>#REF!</v>
       </c>
       <c r="H13" s="1">
         <f>280*2</f>
@@ -1841,27 +1857,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="1">
         <v>7</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="0"/>
+        <f>G6*3</f>
         <v>900</v>
       </c>
       <c r="H14" s="1">
@@ -1918,28 +1934,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="1">
         <v>7</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>450</v>
+      <c r="G15" s="1" t="e">
+        <f>#REF!*3</f>
+        <v>#REF!</v>
       </c>
       <c r="H15" s="1">
         <f>180*2</f>
@@ -1995,23 +2011,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="1">
         <v>7</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="1">
@@ -2070,23 +2086,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="1">
         <v>7</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="1">
@@ -2145,23 +2161,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="1">
         <v>7</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="1">
@@ -2220,23 +2236,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="1">
         <v>7</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1">
@@ -2295,23 +2311,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="1">
         <v>34</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="1">
@@ -2370,23 +2386,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="1">
         <v>34</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="1">
@@ -2445,23 +2461,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="1">
         <v>34</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="1">
@@ -2486,7 +2502,7 @@
       <c r="N22" s="1">
         <v>0</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="1">
         <v>24</v>
       </c>
       <c r="P22" s="1">
@@ -2498,33 +2514,33 @@
       <c r="R22" s="1">
         <v>96</v>
       </c>
-      <c r="S22" s="5">
-        <v>1</v>
-      </c>
-      <c r="T22" s="5">
-        <v>1</v>
-      </c>
-      <c r="U22" s="5">
-        <v>1</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
-        <v>0</v>
-      </c>
-      <c r="X22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2533,10 +2549,10 @@
       <c r="D23" s="1">
         <v>34</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="1">
@@ -2561,7 +2577,7 @@
       <c r="N23" s="1">
         <v>1E-3</v>
       </c>
-      <c r="O23" s="5">
+      <c r="O23" s="1">
         <v>24</v>
       </c>
       <c r="P23" s="1">
@@ -2573,36 +2589,36 @@
       <c r="R23" s="1">
         <v>96</v>
       </c>
-      <c r="S23" s="5">
-        <v>1</v>
-      </c>
-      <c r="T23" s="5">
-        <v>1</v>
-      </c>
-      <c r="U23" s="5">
-        <v>1</v>
-      </c>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
-      <c r="X23" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S23" s="1">
+        <v>1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" s="1">
@@ -2611,7 +2627,7 @@
       <c r="E24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="1">
@@ -2672,11 +2688,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2688,7 +2704,7 @@
       <c r="E25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="1">
@@ -2747,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2763,7 +2779,7 @@
       <c r="E26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="1">
@@ -2824,7 +2840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2840,7 +2856,7 @@
       <c r="E27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="1">
@@ -2899,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2915,7 +2931,7 @@
       <c r="E28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="1">
@@ -2976,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2992,7 +3008,7 @@
       <c r="E29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="1">
@@ -3051,14 +3067,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="1">
@@ -3067,10 +3083,10 @@
       <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="1">
         <v>80</v>
       </c>
       <c r="H30" s="1">
@@ -3088,10 +3104,10 @@
       <c r="L30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M30" s="1">
         <v>10</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="1">
         <v>0</v>
       </c>
       <c r="O30" s="1">
@@ -3128,11 +3144,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3144,7 +3160,7 @@
       <c r="E31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="1">
@@ -3165,8 +3181,8 @@
       <c r="L31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1">
         <v>0</v>
       </c>
       <c r="O31" s="1">
@@ -3203,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3219,10 +3235,10 @@
       <c r="E32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="1">
         <v>80</v>
       </c>
       <c r="H32" s="1">
@@ -3240,10 +3256,10 @@
       <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M32" s="1">
         <v>10</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="1">
         <v>0</v>
       </c>
       <c r="O32" s="1">
@@ -3280,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3296,7 +3312,7 @@
       <c r="E33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="1">
@@ -3317,8 +3333,8 @@
       <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1">
         <v>0</v>
       </c>
       <c r="O33" s="1">
@@ -3355,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3371,10 +3387,10 @@
       <c r="E34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="1">
         <v>80</v>
       </c>
       <c r="H34" s="1">
@@ -3392,10 +3408,10 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M34" s="1">
         <v>10</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="1">
         <v>0</v>
       </c>
       <c r="O34" s="1">
@@ -3432,7 +3448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3448,7 +3464,7 @@
       <c r="E35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" t="s">
         <v>36</v>
       </c>
       <c r="G35" s="1">
@@ -3469,8 +3485,8 @@
       <c r="L35" s="1">
         <v>0</v>
       </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5">
+      <c r="M35" s="1"/>
+      <c r="N35" s="1">
         <v>0</v>
       </c>
       <c r="O35" s="1">
@@ -3507,14 +3523,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>40</v>
       </c>
       <c r="D36" s="1">
@@ -3523,10 +3539,10 @@
       <c r="E36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="1">
         <v>80</v>
       </c>
       <c r="H36" s="1">
@@ -3584,11 +3600,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3600,7 +3616,7 @@
       <c r="E37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" t="s">
         <v>36</v>
       </c>
       <c r="G37" s="1">
@@ -3659,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3675,10 +3691,10 @@
       <c r="E38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="1">
         <v>80</v>
       </c>
       <c r="H38" s="1">
@@ -3736,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3752,7 +3768,7 @@
       <c r="E39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="1">
@@ -3811,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3827,10 +3843,10 @@
       <c r="E40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="1">
         <v>80</v>
       </c>
       <c r="H40" s="1">
@@ -3888,7 +3904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3904,7 +3920,7 @@
       <c r="E41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" t="s">
         <v>36</v>
       </c>
       <c r="G41" s="1">
@@ -3963,14 +3979,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="1">
@@ -3979,7 +3995,7 @@
       <c r="E42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="1">
@@ -4040,11 +4056,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4056,7 +4072,7 @@
       <c r="E43" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" t="s">
         <v>36</v>
       </c>
       <c r="G43" s="1">
@@ -4115,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4131,7 +4147,7 @@
       <c r="E44" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="1">
@@ -4192,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4208,7 +4224,7 @@
       <c r="E45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" t="s">
         <v>36</v>
       </c>
       <c r="G45" s="1">
@@ -4267,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4283,7 +4299,7 @@
       <c r="E46" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" t="s">
         <v>36</v>
       </c>
       <c r="G46" s="1">
@@ -4344,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4360,7 +4376,7 @@
       <c r="E47" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" t="s">
         <v>36</v>
       </c>
       <c r="G47" s="1">
@@ -4381,8 +4397,8 @@
       <c r="L47" s="1">
         <v>0</v>
       </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5">
+      <c r="M47" s="1"/>
+      <c r="N47" s="1">
         <v>0</v>
       </c>
       <c r="O47" s="1">
@@ -4419,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4435,7 +4451,7 @@
       <c r="E48" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="1">
@@ -4496,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4512,10 +4528,10 @@
       <c r="E49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" t="s">
         <v>36</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="1">
         <v>150</v>
       </c>
       <c r="H49" s="1">
@@ -4533,10 +4549,10 @@
       <c r="L49" s="1">
         <v>0</v>
       </c>
-      <c r="M49" s="5">
+      <c r="M49" s="1">
         <v>10</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="1">
         <v>1E-3</v>
       </c>
       <c r="O49" s="1">
@@ -4573,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4589,10 +4605,10 @@
       <c r="E50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" t="s">
         <v>36</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="1">
         <v>125</v>
       </c>
       <c r="H50" s="1">
@@ -4650,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4666,10 +4682,10 @@
       <c r="E51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" t="s">
         <v>36</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="1">
         <v>125</v>
       </c>
       <c r="H51" s="1">
@@ -4727,7 +4743,541 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="1">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H52" s="1">
+        <v>700</v>
+      </c>
+      <c r="I52" s="1">
+        <v>800</v>
+      </c>
+      <c r="J52" s="1">
+        <v>200</v>
+      </c>
+      <c r="K52" s="1">
+        <v>25</v>
+      </c>
+      <c r="L52" s="1">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O52" s="1">
+        <v>24</v>
+      </c>
+      <c r="P52" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
+        <v>7</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1</v>
+      </c>
+      <c r="U52" s="1">
+        <v>1</v>
+      </c>
+      <c r="V52" s="1">
+        <v>1</v>
+      </c>
+      <c r="W52" s="1">
+        <v>1</v>
+      </c>
+      <c r="X52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="1">
+        <v>34</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="1">
+        <v>80</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1">
+        <v>0</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>4</v>
+      </c>
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0</v>
+      </c>
+      <c r="R53" s="1">
+        <v>3</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1</v>
+      </c>
+      <c r="U53" s="1">
+        <v>1</v>
+      </c>
+      <c r="V53" s="1">
+        <v>1</v>
+      </c>
+      <c r="W53" s="1">
+        <v>1</v>
+      </c>
+      <c r="X53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="1">
+        <v>34</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="1">
+        <v>100</v>
+      </c>
+      <c r="H54" s="1">
+        <v>150</v>
+      </c>
+      <c r="I54" s="1">
+        <v>80</v>
+      </c>
+      <c r="J54" s="1">
+        <v>100</v>
+      </c>
+      <c r="K54" s="1">
+        <v>20</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>24</v>
+      </c>
+      <c r="P54" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>5</v>
+      </c>
+      <c r="S54" s="1">
+        <v>1</v>
+      </c>
+      <c r="T54" s="1">
+        <v>0</v>
+      </c>
+      <c r="U54" s="1">
+        <v>1</v>
+      </c>
+      <c r="V54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>1</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="1">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="1">
+        <v>80</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>4</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>3</v>
+      </c>
+      <c r="S55" s="1">
+        <v>1</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1</v>
+      </c>
+      <c r="U55" s="1">
+        <v>1</v>
+      </c>
+      <c r="V55" s="1">
+        <v>1</v>
+      </c>
+      <c r="W55" s="1">
+        <v>1</v>
+      </c>
+      <c r="X55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="1">
+        <v>34</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="1">
+        <v>80</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>8</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>4</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>3</v>
+      </c>
+      <c r="S56" s="1">
+        <v>1</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1</v>
+      </c>
+      <c r="U56" s="1">
+        <v>1</v>
+      </c>
+      <c r="V56" s="1">
+        <v>1</v>
+      </c>
+      <c r="W56" s="1">
+        <v>1</v>
+      </c>
+      <c r="X56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="1">
+        <v>34</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="1">
+        <v>80</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>8</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>4</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>3</v>
+      </c>
+      <c r="S57" s="1">
+        <v>1</v>
+      </c>
+      <c r="T57" s="1">
+        <v>1</v>
+      </c>
+      <c r="U57" s="1">
+        <v>1</v>
+      </c>
+      <c r="V57" s="1">
+        <v>1</v>
+      </c>
+      <c r="W57" s="1">
+        <v>1</v>
+      </c>
+      <c r="X57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="1">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H58" s="1">
+        <v>700</v>
+      </c>
+      <c r="I58" s="1">
+        <v>800</v>
+      </c>
+      <c r="J58" s="1">
+        <v>200</v>
+      </c>
+      <c r="K58" s="1">
+        <v>25</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="O58" s="1">
+        <v>24</v>
+      </c>
+      <c r="P58" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>7</v>
+      </c>
+      <c r="S58" s="1">
+        <v>1</v>
+      </c>
+      <c r="T58" s="1">
+        <v>1</v>
+      </c>
+      <c r="U58" s="1">
+        <v>1</v>
+      </c>
+      <c r="V58" s="1">
+        <v>1</v>
+      </c>
+      <c r="W58" s="1">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:Y51" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y58">
+      <sortCondition ref="A1:A51"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4743,428 +5293,428 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="1">
         <v>50000</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="1">
         <v>21000</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="1">
         <v>34</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="4">
         <v>43132</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="4">
         <v>43156</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="1">
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="1">
         <v>10000</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="1">
         <v>20000</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="1">
         <v>67</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="4">
         <v>43133</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="4">
         <v>43154</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="1">
         <v>12000</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="1">
         <v>20000</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="1">
         <v>67</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="4">
         <v>43134</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="4">
         <v>43154</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="1">
         <v>800000</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="1">
         <v>20</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="1">
         <v>7</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="4">
         <v>43135</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="4">
         <v>43155</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="1">
         <v>700000</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="1">
         <v>5000</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="1">
         <v>50</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="4">
         <v>43136</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="4">
         <v>43153</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="1">
         <v>30000</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="1">
         <v>25000</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="1">
         <v>67</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="4">
         <v>43137</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="4">
         <v>43154</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="1">
         <v>10000</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="1">
         <v>10000</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="1">
         <v>34</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="4">
         <v>43138</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="4">
         <v>43155</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="1">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="1">
         <v>10000</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="1">
         <v>20000</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="1">
         <v>67</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="4">
         <v>43139</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="4">
         <v>43156</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="1">
         <v>0</v>
       </c>
     </row>
